--- a/analysis/IL/IL2022-metrics.xlsx
+++ b/analysis/IL/IL2022-metrics.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A083A249-A0A4-BC4A-B0A4-386397FAF409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B4C3CF-2A12-CA47-B409-1E20E88D9B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="7340" windowWidth="27240" windowHeight="16440" xr2:uid="{93176102-D551-7E4A-8E38-2E716C3766C5}"/>
+    <workbookView xWindow="12780" yWindow="6900" windowWidth="26840" windowHeight="15940" xr2:uid="{9F82D1CB-05A3-684F-9385-DF40F74D99BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="IL2022_metrics" localSheetId="0">Sheet1!$A$1:$K$24</definedName>
+    <definedName name="IL2022_metrics" localSheetId="0">Sheet1!$A$1:$L$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,10 +40,11 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{474319EC-C19E-3449-9343-8D18744B1E7C}" name="IL2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{7B94490C-D6B3-C54F-AFC1-0C217764D23E}" name="IL2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-metrics.csv" comma="1">
-      <textFields count="11">
+      <textFields count="12">
         <textField type="text"/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>METRIC</t>
   </si>
@@ -163,6 +164,9 @@
   </si>
   <si>
     <t>U_Sf</t>
+  </si>
+  <si>
+    <t>Δ</t>
   </si>
   <si>
     <t>Δ/SEM</t>
@@ -172,6 +176,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -197,62 +204,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -262,20 +216,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,7 +240,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-metrics" connectionId="1" xr16:uid="{9CBAFE72-F19B-944E-9038-2FA37C9C690A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-metrics" connectionId="1" xr16:uid="{2E4D18E3-1795-EB41-84CC-99DC4BB4C820}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,860 +539,932 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB65F810-3E9A-F44D-829E-356C42555812}">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE5CE2C-55E8-1D4A-A696-088B869C75BF}">
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>0.58168600000000004</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="4">
         <v>0.58658999999999994</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="4">
         <v>0.59020099999999998</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="4">
         <v>0.58564899999999998</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="4">
         <v>0.57967599999999997</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="4">
         <v>0.58408899999999997</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="4">
         <v>0.56138600000000005</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="4">
         <v>0.58126500000000003</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="4">
         <v>4.215E-3</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="4">
+        <v>4.2099999999999999E-4</v>
+      </c>
+      <c r="L2" s="4">
         <v>9.9880999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3">
         <v>13.309117000000001</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3">
         <v>13.562381999999999</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3">
         <v>13.329026000000001</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3">
         <v>13.624207999999999</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3">
         <v>12.824733</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3">
         <v>12.896032</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3">
         <v>12.406579000000001</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3">
         <v>13.10716</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3">
         <v>0.19484599999999999</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3">
+        <v>0.201957</v>
+      </c>
+      <c r="L3">
         <v>1.0364949999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>0.78288899999999995</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <v>0.79778700000000002</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>0.78405999999999998</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>0.80142400000000003</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="4">
         <v>0.75439599999999996</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="4">
         <v>0.75858999999999999</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="4">
         <v>0.72979899999999998</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="4">
         <v>0.77100900000000006</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="4">
         <v>1.1461000000000001E-2</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="4">
+        <v>1.188E-2</v>
+      </c>
+      <c r="L4" s="4">
         <v>1.036559</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>14</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>14</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>14</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>14</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>10</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>-3.0394999999999998E-2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <v>-6.5994999999999998E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>-3.3023999999999998E-2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <v>-5.9129000000000001E-2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="4">
         <v>8.9060000000000007E-3</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="4">
         <v>3.6979999999999999E-3</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="4">
         <v>-2.0261000000000001E-2</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="4">
         <v>-2.7633999999999999E-2</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="4">
         <v>1.2733E-2</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="4">
+        <v>-2.761E-3</v>
+      </c>
+      <c r="L7" s="4">
         <v>-0.216838</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>-9.3360000000000005E-3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <v>-2.0416E-2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>-1.2159E-2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>-1.6868999999999999E-2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="4">
         <v>2.627E-3</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="4">
         <v>1.194E-3</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="4">
         <v>-6.548E-3</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="4">
         <v>-8.6949999999999996E-3</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="4">
         <v>3.859E-3</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="4">
+        <v>-6.4099999999999997E-4</v>
+      </c>
+      <c r="L8" s="4">
         <v>-0.166105</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="4">
         <v>-27.316002999999998</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="4">
         <v>-33.856498999999999</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="4">
         <v>-30.206417999999999</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="4">
         <v>-31.061053999999999</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="4">
         <v>-11.190721999999999</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="4">
         <v>-15.109211</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="4">
         <v>-18.491578000000001</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="4">
         <v>-23.319247000000001</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="4">
         <v>3.899635</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="4">
+        <v>-3.996756</v>
+      </c>
+      <c r="L9" s="4">
         <v>-1.024905</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>-2.9332E-2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
         <v>-4.1054E-2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>-3.5437000000000003E-2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>-3.6263999999999998E-2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="4">
         <v>1.0596E-2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="4">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="4">
         <v>-2.5083999999999999E-2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="4">
         <v>-1.8606999999999999E-2</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="4">
         <v>1.0269E-2</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="4">
+        <v>-1.0725E-2</v>
+      </c>
+      <c r="L10" s="4">
         <v>-1.044405</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>-0.119517</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="4">
         <v>-0.124607</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="4">
         <v>-0.103658</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="4">
         <v>-0.13012599999999999</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="4">
         <v>-9.5044000000000003E-2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="4">
         <v>-9.0412000000000006E-2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="4">
         <v>-0.107027</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="4">
         <v>-0.10847900000000001</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="4">
         <v>6.483E-3</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="4">
+        <v>-1.1037999999999999E-2</v>
+      </c>
+      <c r="L11" s="4">
         <v>-1.702607</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>-2.9315999999999998E-2</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="4">
         <v>-2.4271999999999998E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="4">
         <v>-2.7979E-2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>-3.0495000000000001E-2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="4">
         <v>-5.8129999999999996E-3</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="4">
         <v>-4.6880000000000003E-3</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="4">
         <v>-4.3833999999999998E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="4">
         <v>-2.2846999999999999E-2</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="4">
         <v>6.1840000000000003E-3</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="4">
+        <v>-6.4689999999999999E-3</v>
+      </c>
+      <c r="L12" s="4">
         <v>-1.046087</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>-0.20120299999999999</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="4">
         <v>-0.211197</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <v>-0.193859</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="4">
         <v>-0.21577499999999999</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="4">
         <v>-0.17471999999999999</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="4">
         <v>-0.17450099999999999</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="4">
         <v>-0.16841300000000001</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="4">
         <v>-0.189744</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="4">
         <v>8.3020000000000004E-3</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="4">
+        <v>-1.1459E-2</v>
+      </c>
+      <c r="L13" s="4">
         <v>-1.3802700000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>1.4576E-2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="4">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="4">
         <v>6.5209999999999999E-3</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <v>4.6340000000000001E-3</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="4">
         <v>2.2423999999999999E-2</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="4">
         <v>3.3033E-2</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="4">
         <v>1.4213999999999999E-2</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="4">
         <v>1.4818E-2</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="4">
         <v>4.5019999999999999E-3</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="4">
+        <v>-2.42E-4</v>
+      </c>
+      <c r="L14" s="4">
         <v>-5.3754000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>-8.7709999999999993E-3</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="4">
         <v>-8.8380000000000004E-3</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="4">
         <v>-8.7360000000000007E-3</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="4">
         <v>-1.3181E-2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="4">
         <v>-7.1110000000000001E-3</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="4">
         <v>-5.0590000000000001E-3</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="4">
         <v>-8.3090000000000004E-3</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="4">
         <v>-8.5389999999999997E-3</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="4">
         <v>1.0939999999999999E-3</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="4">
+        <v>-2.32E-4</v>
+      </c>
+      <c r="L15" s="4">
         <v>-0.212066</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <v>2.3347E-2</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="4">
         <v>1.6917999999999999E-2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="4">
         <v>1.5257E-2</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <v>1.7815000000000001E-2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="4">
         <v>2.9534999999999999E-2</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="4">
         <v>3.8092000000000001E-2</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="4">
         <v>2.2523000000000001E-2</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="4">
         <v>2.3356999999999999E-2</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="4">
         <v>3.6229999999999999E-3</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="4">
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="L16" s="4">
         <v>-2.7599999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="4">
         <v>2.7865000000000001E-2</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="4">
         <v>1.064E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="4">
         <v>2.1849E-2</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="4">
         <v>2.6983E-2</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="4">
         <v>6.4306000000000002E-2</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="4">
         <v>5.7508999999999998E-2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="4">
         <v>2.6807000000000001E-2</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="4">
         <v>3.4681999999999998E-2</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="4">
         <v>8.685E-3</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="4">
+        <v>-6.8170000000000001E-3</v>
+      </c>
+      <c r="L17" s="4">
         <v>-0.78491699999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="4">
         <v>3.46313</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="4">
         <v>3.4390480000000001</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="4">
         <v>3.1491929999999999</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="4">
         <v>3.5192939999999999</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="4">
         <v>3.192882</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="4">
         <v>3.0751949999999999</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="4">
         <v>3.7435049999999999</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="4">
         <v>3.353186</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="4">
         <v>0.105183</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="4">
+        <v>0.109944</v>
+      </c>
+      <c r="L18" s="4">
         <v>1.045264</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="4">
         <v>1.7084630000000001</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="4">
         <v>1.1841330000000001</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="4">
         <v>1.649149</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="4">
         <v>1.078962</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="4">
         <v>2.377005</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="4">
         <v>2.2119219999999999</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="4">
         <v>2.963419</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="4">
         <v>1.910765</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="4">
         <v>0.30024899999999999</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="4">
+        <v>-0.20230200000000001</v>
+      </c>
+      <c r="L19" s="4">
         <v>-0.67378099999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="4">
         <v>2.4143500000000002</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="4">
         <v>1.5964179999999999</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="4">
         <v>2.3231649999999999</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="4">
         <v>1.4242060000000001</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="4">
         <v>3.7423869999999999</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="4">
         <v>3.4166439999999998</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="4">
         <v>4.6246499999999999</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="4">
         <v>2.8545780000000001</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="4">
         <v>0.52117199999999997</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="4">
+        <v>-0.44022800000000001</v>
+      </c>
+      <c r="L20" s="4">
         <v>-0.84468900000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>0.56499999999999995</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>0.56499999999999995</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>0.55500000000000005</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>0.54</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>0.55916699999999997</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>4.3620000000000004E-3</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
+        <v>8.3299999999999997E-4</v>
+      </c>
+      <c r="L21" s="4">
         <v>0.190967</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>0.73684700000000003</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>0.76438300000000003</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>0.74546599999999996</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>0.770729</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>0.68617799999999995</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>0.69689000000000001</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>0.66212899999999997</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>0.72096199999999999</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <v>1.8450999999999999E-2</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
+        <v>1.5885E-2</v>
+      </c>
+      <c r="L22" s="4">
         <v>0.86092900000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>0.60499999999999998</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>0.61</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>0.61499999999999999</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>0.61</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>0.6</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>0.60499999999999998</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>0.58499999999999996</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>0.60416700000000001</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>4.3620000000000004E-3</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="4">
+        <v>8.3299999999999997E-4</v>
+      </c>
+      <c r="L23" s="4">
         <v>0.190967</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>0.81222499999999997</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>0.81818900000000006</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>0.81356899999999999</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>0.8206</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>0.799481</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>0.79936600000000002</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>0.78716299999999995</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>0.80639499999999997</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <v>5.352E-3</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="4">
+        <v>5.8300000000000001E-3</v>
+      </c>
+      <c r="L24" s="4">
         <v>1.0893120000000001</v>
       </c>
     </row>

--- a/analysis/IL/IL2022-metrics.xlsx
+++ b/analysis/IL/IL2022-metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/IL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B4C3CF-2A12-CA47-B409-1E20E88D9B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A294FD68-F366-A242-B8ED-F5E6F89695B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="6900" windowWidth="26840" windowHeight="15940" xr2:uid="{9F82D1CB-05A3-684F-9385-DF40F74D99BB}"/>
+    <workbookView xWindow="24360" yWindow="6420" windowWidth="26840" windowHeight="15940" xr2:uid="{9F82D1CB-05A3-684F-9385-DF40F74D99BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="IL2022_metrics" localSheetId="0">Sheet1!$A$1:$L$24</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{7B94490C-D6B3-C54F-AFC1-0C217764D23E}" name="IL2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-metrics.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-metrics.csv" comma="1">
       <textFields count="12">
         <textField type="text"/>
         <textField/>
@@ -204,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -212,16 +212,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,13 +565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE5CE2C-55E8-1D4A-A696-088B869C75BF}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,40 +696,40 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>0.78288899999999995</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>0.79778700000000002</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>0.78405999999999998</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>0.80142400000000003</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>0.75439599999999996</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>0.75858999999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <v>0.72979899999999998</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <v>0.77100900000000006</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <v>1.1461000000000001E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <v>1.188E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="6">
         <v>1.036559</v>
       </c>
     </row>
@@ -862,344 +887,344 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4">
-        <v>-27.316002999999998</v>
+        <v>-2.9332E-2</v>
       </c>
       <c r="C9" s="4">
-        <v>-33.856498999999999</v>
+        <v>-4.1054E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>-30.206417999999999</v>
+        <v>-3.5437000000000003E-2</v>
       </c>
       <c r="E9" s="4">
-        <v>-31.061053999999999</v>
+        <v>-3.6263999999999998E-2</v>
       </c>
       <c r="F9" s="4">
-        <v>-11.190721999999999</v>
+        <v>1.0596E-2</v>
       </c>
       <c r="G9" s="4">
-        <v>-15.109211</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="H9" s="4">
-        <v>-18.491578000000001</v>
+        <v>-2.5083999999999999E-2</v>
       </c>
       <c r="I9" s="4">
-        <v>-23.319247000000001</v>
+        <v>-1.8606999999999999E-2</v>
       </c>
       <c r="J9" s="4">
-        <v>3.899635</v>
+        <v>1.0269E-2</v>
       </c>
       <c r="K9" s="4">
-        <v>-3.996756</v>
+        <v>-1.0725E-2</v>
       </c>
       <c r="L9" s="4">
-        <v>-1.024905</v>
+        <v>-1.044405</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
-        <v>-2.9332E-2</v>
+        <v>-0.119517</v>
       </c>
       <c r="C10" s="4">
-        <v>-4.1054E-2</v>
+        <v>-0.124607</v>
       </c>
       <c r="D10" s="4">
-        <v>-3.5437000000000003E-2</v>
+        <v>-0.103658</v>
       </c>
       <c r="E10" s="4">
-        <v>-3.6263999999999998E-2</v>
+        <v>-0.13012599999999999</v>
       </c>
       <c r="F10" s="4">
-        <v>1.0596E-2</v>
+        <v>-9.5044000000000003E-2</v>
       </c>
       <c r="G10" s="4">
-        <v>1.5599999999999999E-2</v>
+        <v>-9.0412000000000006E-2</v>
       </c>
       <c r="H10" s="4">
-        <v>-2.5083999999999999E-2</v>
+        <v>-0.107027</v>
       </c>
       <c r="I10" s="4">
-        <v>-1.8606999999999999E-2</v>
+        <v>-0.10847900000000001</v>
       </c>
       <c r="J10" s="4">
-        <v>1.0269E-2</v>
+        <v>6.483E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>-1.0725E-2</v>
+        <v>-1.1037999999999999E-2</v>
       </c>
       <c r="L10" s="4">
-        <v>-1.044405</v>
+        <v>-1.702607</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4">
-        <v>-0.119517</v>
+        <v>-2.9315999999999998E-2</v>
       </c>
       <c r="C11" s="4">
-        <v>-0.124607</v>
+        <v>-2.4271999999999998E-2</v>
       </c>
       <c r="D11" s="4">
-        <v>-0.103658</v>
+        <v>-2.7979E-2</v>
       </c>
       <c r="E11" s="4">
-        <v>-0.13012599999999999</v>
+        <v>-3.0495000000000001E-2</v>
       </c>
       <c r="F11" s="4">
-        <v>-9.5044000000000003E-2</v>
+        <v>-5.8129999999999996E-3</v>
       </c>
       <c r="G11" s="4">
-        <v>-9.0412000000000006E-2</v>
+        <v>-4.6880000000000003E-3</v>
       </c>
       <c r="H11" s="4">
-        <v>-0.107027</v>
+        <v>-4.3833999999999998E-2</v>
       </c>
       <c r="I11" s="4">
-        <v>-0.10847900000000001</v>
+        <v>-2.2846999999999999E-2</v>
       </c>
       <c r="J11" s="4">
-        <v>6.483E-3</v>
+        <v>6.1840000000000003E-3</v>
       </c>
       <c r="K11" s="4">
-        <v>-1.1037999999999999E-2</v>
+        <v>-6.4689999999999999E-3</v>
       </c>
       <c r="L11" s="4">
-        <v>-1.702607</v>
+        <v>-1.046087</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4">
-        <v>-2.9315999999999998E-2</v>
+        <v>-0.20120299999999999</v>
       </c>
       <c r="C12" s="4">
-        <v>-2.4271999999999998E-2</v>
+        <v>-0.211197</v>
       </c>
       <c r="D12" s="4">
-        <v>-2.7979E-2</v>
+        <v>-0.193859</v>
       </c>
       <c r="E12" s="4">
-        <v>-3.0495000000000001E-2</v>
+        <v>-0.21577499999999999</v>
       </c>
       <c r="F12" s="4">
-        <v>-5.8129999999999996E-3</v>
+        <v>-0.17471999999999999</v>
       </c>
       <c r="G12" s="4">
-        <v>-4.6880000000000003E-3</v>
+        <v>-0.17450099999999999</v>
       </c>
       <c r="H12" s="4">
-        <v>-4.3833999999999998E-2</v>
+        <v>-0.16841300000000001</v>
       </c>
       <c r="I12" s="4">
-        <v>-2.2846999999999999E-2</v>
+        <v>-0.189744</v>
       </c>
       <c r="J12" s="4">
-        <v>6.1840000000000003E-3</v>
+        <v>8.3020000000000004E-3</v>
       </c>
       <c r="K12" s="4">
-        <v>-6.4689999999999999E-3</v>
+        <v>-1.1459E-2</v>
       </c>
       <c r="L12" s="4">
-        <v>-1.046087</v>
+        <v>-1.3802700000000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4">
-        <v>-0.20120299999999999</v>
+        <v>1.4576E-2</v>
       </c>
       <c r="C13" s="4">
-        <v>-0.211197</v>
+        <v>8.0800000000000004E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>-0.193859</v>
+        <v>6.5209999999999999E-3</v>
       </c>
       <c r="E13" s="4">
-        <v>-0.21577499999999999</v>
+        <v>4.6340000000000001E-3</v>
       </c>
       <c r="F13" s="4">
-        <v>-0.17471999999999999</v>
+        <v>2.2423999999999999E-2</v>
       </c>
       <c r="G13" s="4">
-        <v>-0.17450099999999999</v>
+        <v>3.3033E-2</v>
       </c>
       <c r="H13" s="4">
-        <v>-0.16841300000000001</v>
+        <v>1.4213999999999999E-2</v>
       </c>
       <c r="I13" s="4">
-        <v>-0.189744</v>
+        <v>1.4818E-2</v>
       </c>
       <c r="J13" s="4">
-        <v>8.3020000000000004E-3</v>
+        <v>4.5019999999999999E-3</v>
       </c>
       <c r="K13" s="4">
-        <v>-1.1459E-2</v>
+        <v>-2.42E-4</v>
       </c>
       <c r="L13" s="4">
-        <v>-1.3802700000000001</v>
+        <v>-5.3754000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4">
-        <v>1.4576E-2</v>
+        <v>2.3347E-2</v>
       </c>
       <c r="C14" s="4">
-        <v>8.0800000000000004E-3</v>
+        <v>1.6917999999999999E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>6.5209999999999999E-3</v>
+        <v>1.5257E-2</v>
       </c>
       <c r="E14" s="4">
-        <v>4.6340000000000001E-3</v>
+        <v>1.7815000000000001E-2</v>
       </c>
       <c r="F14" s="4">
-        <v>2.2423999999999999E-2</v>
+        <v>2.9534999999999999E-2</v>
       </c>
       <c r="G14" s="4">
-        <v>3.3033E-2</v>
+        <v>3.8092000000000001E-2</v>
       </c>
       <c r="H14" s="4">
-        <v>1.4213999999999999E-2</v>
+        <v>2.2523000000000001E-2</v>
       </c>
       <c r="I14" s="4">
-        <v>1.4818E-2</v>
+        <v>2.3356999999999999E-2</v>
       </c>
       <c r="J14" s="4">
-        <v>4.5019999999999999E-3</v>
+        <v>3.6229999999999999E-3</v>
       </c>
       <c r="K14" s="4">
-        <v>-2.42E-4</v>
+        <v>-1.0000000000000001E-5</v>
       </c>
       <c r="L14" s="4">
-        <v>-5.3754000000000003E-2</v>
+        <v>-2.7599999999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2.7865000000000001E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.064E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2.1849E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.6983E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>6.4306000000000002E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5.7508999999999998E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.6807000000000001E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3.4681999999999998E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>8.685E-3</v>
+      </c>
+      <c r="K15" s="4">
+        <v>-6.8170000000000001E-3</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-0.78491699999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="6">
         <v>-8.7709999999999993E-3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="6">
         <v>-8.8380000000000004E-3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="6">
         <v>-8.7360000000000007E-3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="6">
         <v>-1.3181E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="6">
         <v>-7.1110000000000001E-3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="6">
         <v>-5.0590000000000001E-3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="6">
         <v>-8.3090000000000004E-3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="6">
         <v>-8.5389999999999997E-3</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J16" s="6">
         <v>1.0939999999999999E-3</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K16" s="6">
         <v>-2.32E-4</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L16" s="6">
         <v>-0.212066</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2.3347E-2</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1.6917999999999999E-2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.5257E-2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1.7815000000000001E-2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2.9534999999999999E-2</v>
-      </c>
-      <c r="G16" s="4">
-        <v>3.8092000000000001E-2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2.2523000000000001E-2</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2.3356999999999999E-2</v>
-      </c>
-      <c r="J16" s="4">
-        <v>3.6229999999999999E-3</v>
-      </c>
-      <c r="K16" s="4">
-        <v>-1.0000000000000001E-5</v>
-      </c>
-      <c r="L16" s="4">
-        <v>-2.7599999999999999E-3</v>
-      </c>
-    </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2.7865000000000001E-2</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1.064E-2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2.1849E-2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2.6983E-2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>6.4306000000000002E-2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>5.7508999999999998E-2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>2.6807000000000001E-2</v>
-      </c>
-      <c r="I17" s="4">
-        <v>3.4681999999999998E-2</v>
-      </c>
-      <c r="J17" s="4">
-        <v>8.685E-3</v>
-      </c>
-      <c r="K17" s="4">
-        <v>-6.8170000000000001E-3</v>
-      </c>
-      <c r="L17" s="4">
-        <v>-0.78491699999999998</v>
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-27.316002999999998</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-33.856498999999999</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-30.206417999999999</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-31.061053999999999</v>
+      </c>
+      <c r="F17" s="8">
+        <v>-11.190721999999999</v>
+      </c>
+      <c r="G17" s="8">
+        <v>-15.109211</v>
+      </c>
+      <c r="H17" s="8">
+        <v>-18.491578000000001</v>
+      </c>
+      <c r="I17" s="8">
+        <v>-23.319247000000001</v>
+      </c>
+      <c r="J17" s="8">
+        <v>3.899635</v>
+      </c>
+      <c r="K17" s="8">
+        <v>-3.996756</v>
+      </c>
+      <c r="L17" s="8">
+        <v>-1.024905</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1466,6 +1491,11 @@
       </c>
       <c r="L24" s="4">
         <v>1.0893120000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="9">
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/IL/IL2022-metrics.xlsx
+++ b/analysis/IL/IL2022-metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/IL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D881683B-726E-7540-88C9-F2A73C96A08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB3C14-611C-164A-ABC4-BEC07E119683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1000" windowWidth="26860" windowHeight="16440" xr2:uid="{DE8FCAD4-7CE8-134D-982D-78CBA55338E8}"/>
+    <workbookView xWindow="14900" yWindow="9400" windowWidth="26860" windowHeight="16440" xr2:uid="{DE8FCAD4-7CE8-134D-982D-78CBA55338E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="IL2022_metrics" localSheetId="0">Sheet1!$A$1:$L$34</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{738E7C73-5346-D148-998C-01BE03AAB955}" name="IL2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-metrics.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-metrics.csv" comma="1">
       <textFields count="12">
         <textField type="text"/>
         <textField/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>METRIC</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Δ/SEM</t>
+  </si>
+  <si>
+    <t>Average for bias measures</t>
+  </si>
+  <si>
+    <t>except declination</t>
   </si>
 </sst>
 </file>
@@ -255,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -266,6 +272,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,13 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA32DA68-AB04-824C-9C2A-7891B8690AD0}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1794,6 +1803,28 @@
         <v>1.0893120000000001</v>
       </c>
     </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I36" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="6">
+        <f>AVERAGE(J7:J12,J14,J17)</f>
+        <v>7.6271250000000002E-3</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" ref="K36:L36" si="0">AVERAGE(K7:K12,K14,K17)</f>
+        <v>-6.2690000000000003E-3</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.79937287499999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I37" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis/IL/IL2022-metrics.xlsx
+++ b/analysis/IL/IL2022-metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/IL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB3C14-611C-164A-ABC4-BEC07E119683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55EAF1E-57AF-6E4E-9EB7-1C6254E53D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14900" yWindow="9400" windowWidth="26860" windowHeight="16440" xr2:uid="{DE8FCAD4-7CE8-134D-982D-78CBA55338E8}"/>
   </bookViews>
@@ -261,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -275,6 +275,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +602,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36:L37"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,79 +997,80 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6">
-        <v>-2.9332E-2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-4.1054E-2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>-3.5437000000000003E-2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>-3.6263999999999998E-2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1.0596E-2</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="H11" s="6">
-        <v>-2.5083999999999999E-2</v>
-      </c>
-      <c r="I11" s="6">
-        <v>-1.8606999999999999E-2</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1.0269E-2</v>
-      </c>
-      <c r="K11" s="6">
-        <v>-1.0725E-2</v>
-      </c>
-      <c r="L11" s="6">
-        <v>-1.044405</v>
-      </c>
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12">
+        <v>-2.9315999999999998E-2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-2.4271999999999998E-2</v>
+      </c>
+      <c r="D11" s="12">
+        <v>-2.7979E-2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>-3.0495000000000001E-2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>-5.8129999999999996E-3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>-4.6880000000000003E-3</v>
+      </c>
+      <c r="H11" s="12">
+        <v>-4.3833999999999998E-2</v>
+      </c>
+      <c r="I11" s="12">
+        <v>-2.2846999999999999E-2</v>
+      </c>
+      <c r="J11" s="12">
+        <v>6.1840000000000003E-3</v>
+      </c>
+      <c r="K11" s="12">
+        <v>-6.4689999999999999E-3</v>
+      </c>
+      <c r="L11" s="12">
+        <v>-1.046087</v>
+      </c>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8">
-        <v>-2.9315999999999998E-2</v>
+        <v>-2.9332E-2</v>
       </c>
       <c r="C12" s="8">
-        <v>-2.4271999999999998E-2</v>
+        <v>-4.1054E-2</v>
       </c>
       <c r="D12" s="8">
-        <v>-2.7979E-2</v>
+        <v>-3.5437000000000003E-2</v>
       </c>
       <c r="E12" s="8">
-        <v>-3.0495000000000001E-2</v>
+        <v>-3.6263999999999998E-2</v>
       </c>
       <c r="F12" s="8">
-        <v>-5.8129999999999996E-3</v>
+        <v>1.0596E-2</v>
       </c>
       <c r="G12" s="8">
-        <v>-4.6880000000000003E-3</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="H12" s="8">
-        <v>-4.3833999999999998E-2</v>
+        <v>-2.5083999999999999E-2</v>
       </c>
       <c r="I12" s="8">
-        <v>-2.2846999999999999E-2</v>
+        <v>-1.8606999999999999E-2</v>
       </c>
       <c r="J12" s="8">
-        <v>6.1840000000000003E-3</v>
+        <v>1.0269E-2</v>
       </c>
       <c r="K12" s="8">
-        <v>-6.4689999999999999E-3</v>
+        <v>-1.0725E-2</v>
       </c>
       <c r="L12" s="8">
-        <v>-1.046087</v>
+        <v>-1.044405</v>
       </c>
       <c r="M12" s="9"/>
     </row>
@@ -1812,11 +1816,11 @@
         <v>7.6271250000000002E-3</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" ref="K36:L36" si="0">AVERAGE(K7:K12,K14,K17)</f>
+        <f>AVERAGE(K7:K12,K14,K17)</f>
         <v>-6.2690000000000003E-3</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L7:L12,L14,L17)</f>
         <v>-0.79937287499999998</v>
       </c>
     </row>

--- a/analysis/IL/IL2022-metrics.xlsx
+++ b/analysis/IL/IL2022-metrics.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/IL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55EAF1E-57AF-6E4E-9EB7-1C6254E53D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AB727C-3E44-4543-8B75-BEDBE1668C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14900" yWindow="9400" windowWidth="26860" windowHeight="16440" xr2:uid="{DE8FCAD4-7CE8-134D-982D-78CBA55338E8}"/>
+    <workbookView xWindow="18680" yWindow="5700" windowWidth="26860" windowHeight="16440" xr2:uid="{DE8FCAD4-7CE8-134D-982D-78CBA55338E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Vf" sheetId="2" r:id="rId2"/>
+    <sheet name="Sf" sheetId="3" r:id="rId3"/>
+    <sheet name="Decl" sheetId="5" r:id="rId4"/>
+    <sheet name="Responsiveness" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="IL2022_metrics" localSheetId="0">Sheet1!$A$1:$L$34</definedName>
+    <definedName name="IL2022_metrics" localSheetId="0">All!$A$1:$L$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>METRIC</t>
   </si>
@@ -193,10 +197,13 @@
     <t>Δ/SEM</t>
   </si>
   <si>
-    <t>Average for bias measures</t>
-  </si>
-  <si>
     <t>except declination</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>Average for unit measures</t>
   </si>
 </sst>
 </file>
@@ -206,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,6 +229,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -257,11 +279,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -275,9 +432,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,13 +762,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA32DA68-AB04-824C-9C2A-7891B8690AD0}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="A1:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,9 +777,10 @@
     <col min="2" max="9" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -651,8 +818,11 @@
         <v>42</v>
       </c>
       <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -689,8 +859,12 @@
       <c r="L2" s="6">
         <v>9.9880999999999998E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O2" s="6">
+        <f>J2/I2</f>
+        <v>7.251425769657557E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -728,8 +902,9 @@
         <v>1.036559</v>
       </c>
       <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -766,8 +941,9 @@
       <c r="L4" s="6">
         <v>1.0364949999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -804,8 +980,9 @@
       <c r="L5" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -842,8 +1019,9 @@
       <c r="L6" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -880,8 +1058,9 @@
       <c r="L7" s="6">
         <v>-1.702607</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -919,8 +1098,9 @@
         <v>-1.3802700000000001</v>
       </c>
       <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -957,8 +1137,9 @@
       <c r="L9" s="6">
         <v>-0.216838</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -995,47 +1176,48 @@
       <c r="L10" s="6">
         <v>-0.166105</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="6">
         <v>-2.9315999999999998E-2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>-2.4271999999999998E-2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>-2.7979E-2</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <v>-3.0495000000000001E-2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="6">
         <v>-5.8129999999999996E-3</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="6">
         <v>-4.6880000000000003E-3</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="6">
         <v>-4.3833999999999998E-2</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="6">
         <v>-2.2846999999999999E-2</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="6">
         <v>6.1840000000000003E-3</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="6">
         <v>-6.4689999999999999E-3</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="6">
         <v>-1.046087</v>
       </c>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -1073,8 +1255,9 @@
         <v>-1.044405</v>
       </c>
       <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1111,8 +1294,9 @@
       <c r="L13" s="6">
         <v>-1.024905</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1149,8 +1333,9 @@
       <c r="L14" s="6">
         <v>-5.3754000000000003E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1187,8 +1372,9 @@
       <c r="L15" s="6">
         <v>-0.212066</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1225,8 +1411,9 @@
       <c r="L16" s="6">
         <v>-2.7599999999999999E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1264,8 +1451,9 @@
         <v>-0.78491699999999998</v>
       </c>
       <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1302,8 +1490,9 @@
       <c r="L18" s="6">
         <v>1.045264</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1340,8 +1529,9 @@
       <c r="L19" s="6">
         <v>-0.67378099999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
@@ -1379,11 +1569,12 @@
         <v>-0.84468900000000002</v>
       </c>
       <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1421,7 +1612,7 @@
         <v>1.036559</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1459,7 +1650,7 @@
         <v>1.0364679999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1497,7 +1688,7 @@
         <v>1.0364679999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,7 +1726,7 @@
         <v>0.52217800000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1573,10 +1764,10 @@
         <v>0.11914</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -1614,7 +1805,7 @@
         <v>0.232737</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -1652,10 +1843,10 @@
         <v>-0.24490200000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1693,7 +1884,7 @@
         <v>0.190967</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -1809,7 +2000,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I36" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J36" s="6">
         <f>AVERAGE(J7:J12,J14,J17)</f>
@@ -1826,10 +2017,433 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I37" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CDA771-991A-6647-BD89-B43EF59E6145}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.58660000000000001</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.58560000000000001</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.57969999999999999</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0.56140000000000001</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0.58130000000000004</v>
+      </c>
+      <c r="J2" s="15">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="K2" s="15">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L2" s="16">
+        <v>9.9900000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DC6109-6ED7-C24A-8C85-FACBBE9C7259}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0.78290000000000004</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.8014</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0.7298</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1.15E-2</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="L2" s="16">
+        <v>1.0366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1677BD89-91AE-724C-911E-0B3C89C62CDE}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="A2:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="15">
+        <v>-27.316002999999998</v>
+      </c>
+      <c r="C2" s="15">
+        <v>-33.856498999999999</v>
+      </c>
+      <c r="D2" s="15">
+        <v>-30.206417999999999</v>
+      </c>
+      <c r="E2" s="15">
+        <v>-31.061053999999999</v>
+      </c>
+      <c r="F2" s="15">
+        <v>-11.190721999999999</v>
+      </c>
+      <c r="G2" s="15">
+        <v>-15.109211</v>
+      </c>
+      <c r="H2" s="15">
+        <v>-18.491578000000001</v>
+      </c>
+      <c r="I2" s="15">
+        <v>-23.319247000000001</v>
+      </c>
+      <c r="J2" s="15">
+        <v>3.899635</v>
+      </c>
+      <c r="K2" s="15">
+        <v>-3.996756</v>
+      </c>
+      <c r="L2" s="16">
+        <v>-1.024905</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A769BF-7DC4-C749-9144-D584A315BB97}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="17">
+        <v>3.46313</v>
+      </c>
+      <c r="C2" s="17">
+        <v>3.4390480000000001</v>
+      </c>
+      <c r="D2" s="17">
+        <v>3.1491929999999999</v>
+      </c>
+      <c r="E2" s="17">
+        <v>3.5192939999999999</v>
+      </c>
+      <c r="F2" s="17">
+        <v>3.192882</v>
+      </c>
+      <c r="G2" s="17">
+        <v>3.0751949999999999</v>
+      </c>
+      <c r="H2" s="17">
+        <v>3.7435049999999999</v>
+      </c>
+      <c r="I2" s="17">
+        <v>3.353186</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0.105183</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0.109944</v>
+      </c>
+      <c r="L2" s="19">
+        <v>1.045264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1.7084630000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1.1841330000000001</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1.649149</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1.078962</v>
+      </c>
+      <c r="F3" s="21">
+        <v>2.377005</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2.2119219999999999</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2.963419</v>
+      </c>
+      <c r="I3" s="21">
+        <v>1.910765</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0.30024899999999999</v>
+      </c>
+      <c r="K3" s="21">
+        <v>-0.20230200000000001</v>
+      </c>
+      <c r="L3" s="22">
+        <v>-0.67378099999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/analysis/IL/IL2022-metrics.xlsx
+++ b/analysis/IL/IL2022-metrics.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/IL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E72C3A-2F97-1E47-82F1-E4EFDA76CC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5832F3-4A45-774B-9DFA-05F8613C22ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="6740" windowWidth="28040" windowHeight="17440" xr2:uid="{CEE681FA-2C7C-0E47-8A1C-CC1142CF2331}"/>
+    <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{CEE681FA-2C7C-0E47-8A1C-CC1142CF2331}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="VfSf" sheetId="3" r:id="rId2"/>
+    <sheet name="Decl" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="IL2022_metrics" localSheetId="0">Sheet1!$A$1:$N$34</definedName>
+    <definedName name="IL2022_metrics" localSheetId="0">All!$A$1:$N$33</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +43,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{BE3E3A44-3AB0-9B4C-BFD2-D004C1315226}" name="IL2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-metrics.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-metrics.csv" comma="1">
       <textFields count="14">
         <textField type="text"/>
         <textField/>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>METRIC</t>
   </si>
@@ -139,9 +141,6 @@
   </si>
   <si>
     <t>r</t>
-  </si>
-  <si>
-    <t>Rd</t>
   </si>
   <si>
     <t>Sb</t>
@@ -199,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,6 +214,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -250,11 +264,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,9 +372,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,13 +700,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B8FA80-1C6B-784D-AF8A-20FC266EF565}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="A1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,13 +752,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="O1" s="5"/>
     </row>
@@ -696,66 +807,51 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="6">
         <v>0.78288899999999995</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>0.79778700000000002</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>0.78405999999999998</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="6">
         <v>0.80142400000000003</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="6">
         <v>0.75439599999999996</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="6">
         <v>0.75858999999999999</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="6">
         <v>0.72979899999999998</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="6">
         <v>0.77100900000000006</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="6">
         <v>1.1461000000000001E-2</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="6">
         <v>1.4865E-2</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="6">
         <v>1.188E-2</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="6">
         <v>1.5408E-2</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="6">
         <v>1.036559</v>
       </c>
-      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1157,7 +1253,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="I14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6">
         <f>AVERAGE(J5:J13)</f>
@@ -1229,7 +1325,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1325,7 +1421,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1333,43 +1429,43 @@
         <v>25</v>
       </c>
       <c r="B23" s="6">
-        <v>2.4143500000000002</v>
+        <v>0.78288899999999995</v>
       </c>
       <c r="C23" s="6">
-        <v>1.5964179999999999</v>
+        <v>0.79778700000000002</v>
       </c>
       <c r="D23" s="6">
-        <v>2.3231649999999999</v>
+        <v>0.78405999999999998</v>
       </c>
       <c r="E23" s="6">
-        <v>1.4242060000000001</v>
+        <v>0.80142400000000003</v>
       </c>
       <c r="F23" s="6">
-        <v>3.7423869999999999</v>
+        <v>0.75439599999999996</v>
       </c>
       <c r="G23" s="6">
-        <v>3.4166439999999998</v>
+        <v>0.75858999999999999</v>
       </c>
       <c r="H23" s="6">
-        <v>4.6246499999999999</v>
+        <v>0.72979899999999998</v>
       </c>
       <c r="I23" s="6">
-        <v>2.8545780000000001</v>
+        <v>0.77100900000000006</v>
       </c>
       <c r="J23" s="6">
-        <v>0.52117199999999997</v>
+        <v>1.1461000000000001E-2</v>
       </c>
       <c r="K23" s="6">
-        <v>0.18257399999999999</v>
+        <v>1.4865E-2</v>
       </c>
       <c r="L23" s="6">
-        <v>-0.44022800000000001</v>
+        <v>1.188E-2</v>
       </c>
       <c r="M23" s="6">
-        <v>-0.15421799999999999</v>
+        <v>1.5408E-2</v>
       </c>
       <c r="N23" s="6">
-        <v>-0.84468900000000002</v>
+        <v>1.036559</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1377,43 +1473,43 @@
         <v>26</v>
       </c>
       <c r="B24" s="6">
-        <v>0.78288899999999995</v>
+        <v>0.89144500000000004</v>
       </c>
       <c r="C24" s="6">
-        <v>0.79778700000000002</v>
+        <v>0.89889399999999997</v>
       </c>
       <c r="D24" s="6">
-        <v>0.78405999999999998</v>
+        <v>0.89202999999999999</v>
       </c>
       <c r="E24" s="6">
-        <v>0.80142400000000003</v>
+        <v>0.90071199999999996</v>
       </c>
       <c r="F24" s="6">
-        <v>0.75439599999999996</v>
+        <v>0.87719800000000003</v>
       </c>
       <c r="G24" s="6">
-        <v>0.75858999999999999</v>
+        <v>0.87929500000000005</v>
       </c>
       <c r="H24" s="6">
-        <v>0.72979899999999998</v>
+        <v>0.86489899999999997</v>
       </c>
       <c r="I24" s="6">
-        <v>0.77100900000000006</v>
+        <v>0.88550499999999999</v>
       </c>
       <c r="J24" s="6">
-        <v>1.1461000000000001E-2</v>
+        <v>5.731E-3</v>
       </c>
       <c r="K24" s="6">
-        <v>1.4865E-2</v>
+        <v>6.4720000000000003E-3</v>
       </c>
       <c r="L24" s="6">
-        <v>1.188E-2</v>
+        <v>5.94E-3</v>
       </c>
       <c r="M24" s="6">
-        <v>1.5408E-2</v>
+        <v>6.7080000000000004E-3</v>
       </c>
       <c r="N24" s="6">
-        <v>1.036559</v>
+        <v>1.0364679999999999</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1421,40 +1517,40 @@
         <v>27</v>
       </c>
       <c r="B25" s="6">
-        <v>0.89144500000000004</v>
+        <v>0.39144499999999999</v>
       </c>
       <c r="C25" s="6">
-        <v>0.89889399999999997</v>
+        <v>0.39889400000000003</v>
       </c>
       <c r="D25" s="6">
-        <v>0.89202999999999999</v>
+        <v>0.39202999999999999</v>
       </c>
       <c r="E25" s="6">
-        <v>0.90071199999999996</v>
+        <v>0.40071200000000001</v>
       </c>
       <c r="F25" s="6">
-        <v>0.87719800000000003</v>
+        <v>0.37719799999999998</v>
       </c>
       <c r="G25" s="6">
-        <v>0.87929500000000005</v>
+        <v>0.37929499999999999</v>
       </c>
       <c r="H25" s="6">
-        <v>0.86489899999999997</v>
+        <v>0.36489899999999997</v>
       </c>
       <c r="I25" s="6">
-        <v>0.88550499999999999</v>
+        <v>0.38550499999999999</v>
       </c>
       <c r="J25" s="6">
         <v>5.731E-3</v>
       </c>
       <c r="K25" s="6">
-        <v>6.4720000000000003E-3</v>
+        <v>1.4866000000000001E-2</v>
       </c>
       <c r="L25" s="6">
         <v>5.94E-3</v>
       </c>
       <c r="M25" s="6">
-        <v>6.7080000000000004E-3</v>
+        <v>1.5408E-2</v>
       </c>
       <c r="N25" s="6">
         <v>1.0364679999999999</v>
@@ -1465,43 +1561,43 @@
         <v>28</v>
       </c>
       <c r="B26" s="6">
-        <v>0.39144499999999999</v>
+        <v>0.62132299999999996</v>
       </c>
       <c r="C26" s="6">
-        <v>0.39889400000000003</v>
+        <v>0.64597700000000002</v>
       </c>
       <c r="D26" s="6">
-        <v>0.39202999999999999</v>
+        <v>0.64399300000000004</v>
       </c>
       <c r="E26" s="6">
-        <v>0.40071200000000001</v>
+        <v>0.62806700000000004</v>
       </c>
       <c r="F26" s="6">
-        <v>0.37719799999999998</v>
+        <v>0.57522700000000004</v>
       </c>
       <c r="G26" s="6">
-        <v>0.37929499999999999</v>
+        <v>0.58801999999999999</v>
       </c>
       <c r="H26" s="6">
-        <v>0.36489899999999997</v>
+        <v>0.60907500000000003</v>
       </c>
       <c r="I26" s="6">
-        <v>0.38550499999999999</v>
+        <v>0.61506000000000005</v>
       </c>
       <c r="J26" s="6">
-        <v>5.731E-3</v>
+        <v>1.1993999999999999E-2</v>
       </c>
       <c r="K26" s="6">
-        <v>1.4866000000000001E-2</v>
+        <v>1.9501000000000001E-2</v>
       </c>
       <c r="L26" s="6">
-        <v>5.94E-3</v>
+        <v>6.2630000000000003E-3</v>
       </c>
       <c r="M26" s="6">
-        <v>1.5408E-2</v>
+        <v>1.0182999999999999E-2</v>
       </c>
       <c r="N26" s="6">
-        <v>1.0364679999999999</v>
+        <v>0.52217800000000003</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -1509,95 +1605,95 @@
         <v>29</v>
       </c>
       <c r="B27" s="6">
-        <v>0.62132299999999996</v>
+        <v>0.35081200000000001</v>
       </c>
       <c r="C27" s="6">
-        <v>0.64597700000000002</v>
+        <v>0.34338299999999999</v>
       </c>
       <c r="D27" s="6">
-        <v>0.64399300000000004</v>
+        <v>0.33415699999999998</v>
       </c>
       <c r="E27" s="6">
-        <v>0.62806700000000004</v>
+        <v>0.34494999999999998</v>
       </c>
       <c r="F27" s="6">
-        <v>0.57522700000000004</v>
+        <v>0.36046699999999998</v>
       </c>
       <c r="G27" s="6">
-        <v>0.58801999999999999</v>
+        <v>0.35447099999999998</v>
       </c>
       <c r="H27" s="6">
-        <v>0.60907500000000003</v>
+        <v>0.364118</v>
       </c>
       <c r="I27" s="6">
-        <v>0.61506000000000005</v>
+        <v>0.35025800000000001</v>
       </c>
       <c r="J27" s="6">
-        <v>1.1993999999999999E-2</v>
+        <v>4.6499999999999996E-3</v>
       </c>
       <c r="K27" s="6">
-        <v>1.9501000000000001E-2</v>
+        <v>1.3276E-2</v>
       </c>
       <c r="L27" s="6">
-        <v>6.2630000000000003E-3</v>
+        <v>5.5400000000000002E-4</v>
       </c>
       <c r="M27" s="6">
-        <v>1.0182999999999999E-2</v>
+        <v>1.5820000000000001E-3</v>
       </c>
       <c r="N27" s="6">
-        <v>0.52217800000000003</v>
+        <v>0.11914</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="6">
-        <v>0.35081200000000001</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.34338299999999999</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0.33415699999999998</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0.34494999999999998</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0.36046699999999998</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0.35447099999999998</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0.364118</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0.35025800000000001</v>
-      </c>
-      <c r="J28" s="6">
-        <v>4.6499999999999996E-3</v>
-      </c>
-      <c r="K28" s="6">
-        <v>1.3276E-2</v>
-      </c>
-      <c r="L28" s="6">
-        <v>5.5400000000000002E-4</v>
-      </c>
-      <c r="M28" s="6">
-        <v>1.5820000000000001E-3</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0.11914</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.55916699999999997</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4.3620000000000004E-3</v>
+      </c>
+      <c r="K30" s="6">
+        <v>7.8009999999999998E-3</v>
+      </c>
+      <c r="L30" s="6">
+        <v>8.3299999999999997E-4</v>
+      </c>
+      <c r="M30" s="6">
+        <v>1.49E-3</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0.190967</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1605,43 +1701,43 @@
         <v>31</v>
       </c>
       <c r="B31" s="6">
-        <v>0.56000000000000005</v>
+        <v>0.73684700000000003</v>
       </c>
       <c r="C31" s="6">
-        <v>0.56499999999999995</v>
+        <v>0.76438300000000003</v>
       </c>
       <c r="D31" s="6">
-        <v>0.56999999999999995</v>
+        <v>0.74546599999999996</v>
       </c>
       <c r="E31" s="6">
-        <v>0.56499999999999995</v>
+        <v>0.770729</v>
       </c>
       <c r="F31" s="6">
-        <v>0.55500000000000005</v>
+        <v>0.68617799999999995</v>
       </c>
       <c r="G31" s="6">
-        <v>0.56000000000000005</v>
+        <v>0.69689000000000001</v>
       </c>
       <c r="H31" s="6">
-        <v>0.54</v>
+        <v>0.66212899999999997</v>
       </c>
       <c r="I31" s="6">
-        <v>0.55916699999999997</v>
+        <v>0.72096199999999999</v>
       </c>
       <c r="J31" s="6">
-        <v>4.3620000000000004E-3</v>
+        <v>1.8450999999999999E-2</v>
       </c>
       <c r="K31" s="6">
-        <v>7.8009999999999998E-3</v>
+        <v>2.5592E-2</v>
       </c>
       <c r="L31" s="6">
-        <v>8.3299999999999997E-4</v>
+        <v>1.5885E-2</v>
       </c>
       <c r="M31" s="6">
-        <v>1.49E-3</v>
+        <v>2.2033000000000001E-2</v>
       </c>
       <c r="N31" s="6">
-        <v>0.190967</v>
+        <v>0.86092900000000006</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -1649,131 +1745,346 @@
         <v>32</v>
       </c>
       <c r="B32" s="6">
-        <v>0.73684700000000003</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="C32" s="6">
-        <v>0.76438300000000003</v>
+        <v>0.61</v>
       </c>
       <c r="D32" s="6">
-        <v>0.74546599999999996</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="E32" s="6">
-        <v>0.770729</v>
+        <v>0.61</v>
       </c>
       <c r="F32" s="6">
-        <v>0.68617799999999995</v>
+        <v>0.6</v>
       </c>
       <c r="G32" s="6">
-        <v>0.69689000000000001</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="H32" s="6">
-        <v>0.66212899999999997</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="I32" s="6">
-        <v>0.72096199999999999</v>
+        <v>0.60416700000000001</v>
       </c>
       <c r="J32" s="6">
-        <v>1.8450999999999999E-2</v>
+        <v>4.3620000000000004E-3</v>
       </c>
       <c r="K32" s="6">
-        <v>2.5592E-2</v>
+        <v>7.2199999999999999E-3</v>
       </c>
       <c r="L32" s="6">
-        <v>1.5885E-2</v>
+        <v>8.3299999999999997E-4</v>
       </c>
       <c r="M32" s="6">
-        <v>2.2033000000000001E-2</v>
+        <v>1.379E-3</v>
       </c>
       <c r="N32" s="6">
-        <v>0.86092900000000006</v>
+        <v>0.190967</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="6">
-        <v>0.60499999999999998</v>
+        <v>0.81222499999999997</v>
       </c>
       <c r="C33" s="6">
-        <v>0.61</v>
+        <v>0.81818900000000006</v>
       </c>
       <c r="D33" s="6">
-        <v>0.61499999999999999</v>
+        <v>0.81356899999999999</v>
       </c>
       <c r="E33" s="6">
-        <v>0.61</v>
+        <v>0.8206</v>
       </c>
       <c r="F33" s="6">
-        <v>0.6</v>
+        <v>0.799481</v>
       </c>
       <c r="G33" s="6">
-        <v>0.60499999999999998</v>
+        <v>0.79936600000000002</v>
       </c>
       <c r="H33" s="6">
-        <v>0.58499999999999996</v>
+        <v>0.78716299999999995</v>
       </c>
       <c r="I33" s="6">
-        <v>0.60416700000000001</v>
+        <v>0.80639499999999997</v>
       </c>
       <c r="J33" s="6">
-        <v>4.3620000000000004E-3</v>
+        <v>5.352E-3</v>
       </c>
       <c r="K33" s="6">
-        <v>7.2199999999999999E-3</v>
+        <v>6.6369999999999997E-3</v>
       </c>
       <c r="L33" s="6">
-        <v>8.3299999999999997E-4</v>
+        <v>5.8300000000000001E-3</v>
       </c>
       <c r="M33" s="6">
-        <v>1.379E-3</v>
+        <v>7.2300000000000003E-3</v>
       </c>
       <c r="N33" s="6">
-        <v>0.190967</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+        <v>1.0893120000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F245D6CC-2FBF-F24A-9F8A-50DAB121FBEC}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="6">
-        <v>0.81222499999999997</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0.81818900000000006</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0.81356899999999999</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0.8206</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0.799481</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0.79936600000000002</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0.78716299999999995</v>
-      </c>
-      <c r="I34" s="6">
-        <v>0.80639499999999997</v>
-      </c>
-      <c r="J34" s="6">
-        <v>5.352E-3</v>
-      </c>
-      <c r="K34" s="6">
-        <v>6.6369999999999997E-3</v>
-      </c>
-      <c r="L34" s="6">
-        <v>5.8300000000000001E-3</v>
-      </c>
-      <c r="M34" s="6">
-        <v>7.2300000000000003E-3</v>
-      </c>
-      <c r="N34" s="6">
-        <v>1.0893120000000001</v>
+      <c r="M1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0.58168600000000004</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.58658999999999994</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0.59020099999999998</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.58564899999999998</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.57967599999999997</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0.58408899999999997</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0.56138600000000005</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0.58126500000000003</v>
+      </c>
+      <c r="J2" s="18">
+        <v>4.215E-3</v>
+      </c>
+      <c r="K2" s="18">
+        <v>7.2509999999999996E-3</v>
+      </c>
+      <c r="L2" s="18">
+        <v>4.2099999999999999E-4</v>
+      </c>
+      <c r="M2" s="18">
+        <v>7.2400000000000003E-4</v>
+      </c>
+      <c r="N2" s="18">
+        <v>9.9880999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0.78288899999999995</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0.79778700000000002</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0.78405999999999998</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.80142400000000003</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0.75439599999999996</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0.75858999999999999</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0.72979899999999998</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0.77100900000000006</v>
+      </c>
+      <c r="J3" s="20">
+        <v>1.1461000000000001E-2</v>
+      </c>
+      <c r="K3" s="20">
+        <v>1.4865E-2</v>
+      </c>
+      <c r="L3" s="20">
+        <v>1.188E-2</v>
+      </c>
+      <c r="M3" s="20">
+        <v>1.5408E-2</v>
+      </c>
+      <c r="N3" s="20">
+        <v>1.036559</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC20EE5C-BFB1-D848-B179-3A410ED248AB}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:N1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="14">
+        <v>-27.315999999999999</v>
+      </c>
+      <c r="C2" s="14">
+        <v>-33.856499999999997</v>
+      </c>
+      <c r="D2" s="14">
+        <v>-30.206399999999999</v>
+      </c>
+      <c r="E2" s="14">
+        <v>-31.0611</v>
+      </c>
+      <c r="F2" s="14">
+        <v>-11.1907</v>
+      </c>
+      <c r="G2" s="14">
+        <v>-15.1092</v>
+      </c>
+      <c r="H2" s="14">
+        <v>-18.491599999999998</v>
+      </c>
+      <c r="I2" s="14">
+        <v>-23.319199999999999</v>
+      </c>
+      <c r="J2" s="14">
+        <v>3.8996</v>
+      </c>
+      <c r="K2" s="14">
+        <v>-0.16719999999999999</v>
+      </c>
+      <c r="L2" s="14">
+        <v>-3.9967999999999999</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0.1714</v>
+      </c>
+      <c r="N2" s="14">
+        <v>-1.0248999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/IL/IL2022-metrics.xlsx
+++ b/analysis/IL/IL2022-metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/IL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5832F3-4A45-774B-9DFA-05F8613C22ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB501B0-E685-984B-B7DC-36DDE780E42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{CEE681FA-2C7C-0E47-8A1C-CC1142CF2331}"/>
+    <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" xr2:uid="{CEE681FA-2C7C-0E47-8A1C-CC1142CF2331}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>METRIC</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>FOR FUTURE USE</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -702,11 +705,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B8FA80-1C6B-784D-AF8A-20FC266EF565}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="A1:N3"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,7 +763,9 @@
       <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1837,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F245D6CC-2FBF-F24A-9F8A-50DAB121FBEC}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
